--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T15:22:00+00:00</t>
+    <t>2023-02-14T06:22:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T06:22:43+00:00</t>
+    <t>2023-02-14T09:55:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -784,7 +784,7 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-enrollment-type</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-patient-enrollment-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1302,7 +1302,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.9609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4325,10 +4325,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:55:25+00:00</t>
+    <t>2023-02-14T11:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:18:24+00:00</t>
+    <t>2023-02-15T10:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T10:47:55+00:00</t>
+    <t>2023-02-16T07:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:29:32+00:00</t>
+    <t>2023-02-16T08:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T08:22:59+00:00</t>
+    <t>2023-02-16T09:19:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T09:19:54+00:00</t>
+    <t>2023-02-16T14:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T14:00:41+00:00</t>
+    <t>2023-02-16T15:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T15:02:50+00:00</t>
+    <t>2023-02-17T05:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T05:13:50+00:00</t>
+    <t>2023-02-17T06:17:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:17:41+00:00</t>
+    <t>2023-02-17T06:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:28:11+00:00</t>
+    <t>2023-02-17T07:01:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T07:01:10+00:00</t>
+    <t>2023-02-17T09:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:02:45+00:00</t>
+    <t>2023-02-18T08:46:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T08:46:50+00:00</t>
+    <t>2023-02-18T10:23:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:23:53+00:00</t>
+    <t>2023-02-18T11:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:25:07+00:00</t>
+    <t>2023-02-18T15:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T15:24:19+00:00</t>
+    <t>2023-02-20T07:40:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>HIV Episode Of Care</t>
+    <t>Patient Enrollment Type</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:40:50+00:00</t>
+    <t>2023-02-27T06:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record the patient HIV Management Programme Enrollment details.</t>
+    <t>This profile is used to record the enrolment type at the time of the encounter.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T06:44:17+00:00</t>
+    <t>2023-02-27T10:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T10:45:48+00:00</t>
+    <t>2023-02-27T12:41:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T12:41:19+00:00</t>
+    <t>2023-02-27T14:23:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T14:23:13+00:00</t>
+    <t>2023-02-28T11:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:11:02+00:00</t>
+    <t>2023-03-01T08:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T08:13:34+00:00</t>
+    <t>2023-03-02T06:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:23+00:00</t>
+    <t>2023-03-02T06:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:38:00+00:00</t>
+    <t>2023-03-03T10:25:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T10:25:55+00:00</t>
+    <t>2023-03-03T14:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4325,10 +4325,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:03:01+00:00</t>
+    <t>2023-03-03T14:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:47:25+00:00</t>
+    <t>2023-03-03T15:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:27:50+00:00</t>
+    <t>2023-03-03T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T16:14:01+00:00</t>
+    <t>2023-03-04T09:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T09:00:22+00:00</t>
+    <t>2023-03-07T16:19:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -472,7 +472,7 @@
     <t>The EpisodeOfCare may be known by different identifiers for different contexts of use, such as when an external agency is tracking the Episode for funding purposes.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">pattern:system}
 </t>
   </si>
   <si>
@@ -485,13 +485,13 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>EpisodeOfCare.identifier:HMPUI</t>
-  </si>
-  <si>
-    <t>HMPUI</t>
-  </si>
-  <si>
-    <t>EpisodeOfCare.identifier:HMPUI.id</t>
+    <t>EpisodeOfCare.identifier:PI</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.id</t>
   </si>
   <si>
     <t>EpisodeOfCare.identifier.id</t>
@@ -510,7 +510,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>EpisodeOfCare.identifier:HMPUI.extension</t>
+    <t>EpisodeOfCare.identifier:PI.extension</t>
   </si>
   <si>
     <t>EpisodeOfCare.identifier.extension</t>
@@ -532,7 +532,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>EpisodeOfCare.identifier:HMPUI.use</t>
+    <t>EpisodeOfCare.identifier:PI.use</t>
   </si>
   <si>
     <t>EpisodeOfCare.identifier.use</t>
@@ -565,7 +565,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>EpisodeOfCare.identifier:HMPUI.type</t>
+    <t>EpisodeOfCare.identifier:PI.type</t>
   </si>
   <si>
     <t>EpisodeOfCare.identifier.type</t>
@@ -599,7 +599,201 @@
     <t>Identifier.type</t>
   </si>
   <si>
-    <t>EpisodeOfCare.identifier:HMPUI.system</t>
+    <t>EpisodeOfCare.identifier:PI.type.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.coding</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.coding.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.coding.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.coding.system</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.coding.version</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.coding.code</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.coding.display</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.type.text</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.identifier:PI.system</t>
   </si>
   <si>
     <t>EpisodeOfCare.identifier.system</t>
@@ -629,7 +823,7 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>EpisodeOfCare.identifier:HMPUI.value</t>
+    <t>EpisodeOfCare.identifier:PI.value</t>
   </si>
   <si>
     <t>EpisodeOfCare.identifier.value</t>
@@ -653,7 +847,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>EpisodeOfCare.identifier:HMPUI.period</t>
+    <t>EpisodeOfCare.identifier:PI.period</t>
   </si>
   <si>
     <t>EpisodeOfCare.identifier.period</t>
@@ -675,7 +869,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>EpisodeOfCare.identifier:HMPUI.assigner</t>
+    <t>EpisodeOfCare.identifier:PI.assigner</t>
   </si>
   <si>
     <t>EpisodeOfCare.identifier.assigner</t>
@@ -1268,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM42"/>
+  <dimension ref="A1:AM53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1277,8 +1471,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.5546875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -2558,7 +2752,7 @@
         <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3110,7 +3304,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3122,35 +3316,31 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>79</v>
@@ -3186,7 +3376,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3198,13 +3388,13 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3212,21 +3402,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -3235,19 +3425,19 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3261,7 +3451,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -3285,37 +3475,37 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>84</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -3323,10 +3513,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3337,7 +3527,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -3349,16 +3539,20 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3406,13 +3600,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -3424,7 +3618,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -3432,10 +3626,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3455,20 +3649,18 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -3517,7 +3709,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3529,13 +3721,13 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -3543,42 +3735,42 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3604,60 +3796,60 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3668,7 +3860,7 @@
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -3677,19 +3869,23 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -3698,7 +3894,7 @@
         <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>79</v>
@@ -3737,13 +3933,13 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -3755,7 +3951,7 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -3763,10 +3959,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3786,18 +3982,20 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -3846,7 +4044,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3858,13 +4056,13 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -3872,21 +4070,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -3895,21 +4093,21 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -3918,7 +4116,7 @@
         <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>79</v>
@@ -3957,25 +4155,25 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -3983,45 +4181,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4070,25 +4266,25 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4096,10 +4292,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4107,7 +4303,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
@@ -4119,19 +4315,23 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -4155,13 +4355,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4179,10 +4379,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -4197,7 +4397,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -4205,10 +4405,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4216,7 +4416,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4228,19 +4428,23 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4288,10 +4492,10 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -4306,7 +4510,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4314,10 +4518,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4340,30 +4544,32 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -4375,11 +4581,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -4397,13 +4605,13 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
@@ -4412,21 +4620,21 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4437,7 +4645,7 @@
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -4449,15 +4657,17 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -4470,7 +4680,7 @@
         <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>79</v>
@@ -4506,13 +4716,13 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
@@ -4524,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -4532,10 +4742,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4555,16 +4765,16 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>155</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4615,7 +4825,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4627,13 +4837,13 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4641,21 +4851,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -4664,19 +4874,19 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>161</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4726,25 +4936,25 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>165</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4752,21 +4962,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -4778,20 +4988,18 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -4815,13 +5023,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -4839,36 +5047,36 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4876,10 +5084,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -4888,16 +5096,16 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4948,13 +5156,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -4963,21 +5171,21 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4997,16 +5205,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5033,13 +5241,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5057,7 +5265,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5069,13 +5277,13 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -5083,21 +5291,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5106,18 +5314,20 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5166,25 +5376,25 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>268</v>
+        <v>165</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -5192,42 +5402,46 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5275,36 +5489,36 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5312,7 +5526,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -5324,16 +5538,16 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5360,13 +5574,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -5384,10 +5598,10 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>86</v>
@@ -5399,7 +5613,7 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
@@ -5410,10 +5624,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5433,16 +5647,16 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5493,10 +5707,10 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -5508,21 +5722,21 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5530,10 +5744,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -5542,18 +5756,20 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -5578,13 +5794,11 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -5602,7 +5816,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5617,21 +5831,21 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5639,10 +5853,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -5651,16 +5865,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5711,13 +5925,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -5726,7 +5940,7 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -5737,21 +5951,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -5763,13 +5977,13 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>155</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
+        <v>157</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5820,25 +6034,25 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
@@ -5846,14 +6060,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5872,16 +6086,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>302</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>303</v>
+        <v>133</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>304</v>
+        <v>161</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>305</v>
+        <v>135</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5931,7 +6145,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>301</v>
+        <v>165</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -5943,15 +6157,1220 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AK44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:19:15+00:00</t>
+    <t>2023-03-07T17:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:24:01+00:00</t>
+    <t>2023-03-08T15:33:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/master/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:33:26+00:00</t>
+    <t>2023-04-04T11:11:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
